--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1638.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1638.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.044620138456169</v>
+        <v>1.076972961425781</v>
       </c>
       <c r="B1">
-        <v>3.018389948524182</v>
+        <v>3.779794216156006</v>
       </c>
       <c r="C1">
-        <v>3.653376071606875</v>
+        <v>3.675584554672241</v>
       </c>
       <c r="D1">
-        <v>2.420024558241836</v>
+        <v>3.225313186645508</v>
       </c>
       <c r="E1">
-        <v>1.191590935110465</v>
+        <v>1.249887466430664</v>
       </c>
     </row>
   </sheetData>
